--- a/77.kart360/extracted_data/77.Data.xlsx
+++ b/77.kart360/extracted_data/77.Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1130">
   <si>
     <t>name</t>
   </si>
@@ -35,7 +35,8 @@
     <t>LUCKY DESIGN USA</t>
   </si>
   <si>
-    <t>Website</t>
+    <t>Boca Raton, FL
+United States</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/792737/lucky-design-logo-sq-880_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -379,6 +380,9 @@
     <t>ROTAX US TROPHY SERIES WEST</t>
   </si>
   <si>
+    <t>AZ United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/834492/us-rotax-trophy-west-sq-640_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -554,6 +558,9 @@
     <t>ROK EURO CUP</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/812195/rok-continental-logo-sq-480_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -661,6 +668,10 @@
     <t>EASTERN CREEK INTERNATIONAL KARTING RACEWAY</t>
   </si>
   <si>
+    <t>Eastern Creek, NSW
+Australia</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/811955/eastern-creek-ikr-logo-sq-500_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -742,6 +753,9 @@
     <t>IAME EURO SERIES</t>
   </si>
   <si>
+    <t>Website</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/811856/iame-euro-series-logo-sq-296_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -767,12 +781,19 @@
     <t>FULL GAS MOTORSPORTS</t>
   </si>
   <si>
+    <t>TX United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/811792/fullgas-logo-sq-1800_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
     <t>RACERS360</t>
   </si>
   <si>
+    <t>San Francisco, CA
+United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/811758/racers360-logo-sq-1400_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -794,6 +815,10 @@
     <t>MAXSPEED ENTERTAINMENT</t>
   </si>
   <si>
+    <t>Deerfield Beach, FL
+United States</t>
+  </si>
+  <si>
     <t>G&amp;J KARTWAY</t>
   </si>
   <si>
@@ -810,6 +835,10 @@
     <t>CUP KARTS CHAMPIONS CUP</t>
   </si>
   <si>
+    <t>Shakopee, MN
+United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/811639/ckna-logo-sq-160_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -822,6 +851,10 @@
     <t>CHARLES LECLERC KART</t>
   </si>
   <si>
+    <t>Lissone, Lombardia
+Italy</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/811622/charles-leclerc-logo-sq-720_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -842,6 +875,10 @@
   </si>
   <si>
     <t>SPEED PARK - KARTING INTERNATIONAL BIRIGUI</t>
+  </si>
+  <si>
+    <t>Birigui, SP
+Brazil</t>
   </si>
   <si>
     <t>ZUERA INTERNATIONAL CIRCUIT</t>
@@ -898,6 +935,10 @@
     <t>ASN CANADA</t>
   </si>
   <si>
+    <t>Oakville, ON
+Canada</t>
+  </si>
+  <si>
     <t>MOSPORT KARTWAYS</t>
   </si>
   <si>
@@ -957,6 +998,10 @@
     <t>WHITELAND RACEWAY PARK</t>
   </si>
   <si>
+    <t>Whiteland, IN
+United States</t>
+  </si>
+  <si>
     <t>https://www.racewrp.com/</t>
   </si>
   <si>
@@ -1014,6 +1059,9 @@
   </si>
   <si>
     <t>SOLO KART USA</t>
+  </si>
+  <si>
+    <t>NJ United States</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/788285/solo-kart-logo-sq-1520_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -1060,6 +1108,10 @@
     <t>EMERALD KARTING CLUB</t>
   </si>
   <si>
+    <t>Emerald, QLD
+Australia</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/KartingClubEmerald</t>
   </si>
   <si>
@@ -1079,12 +1131,20 @@
     <t>IPSWICH KART CLUB</t>
   </si>
   <si>
+    <t>Willowbank, QLD
+Australia</t>
+  </si>
+  <si>
     <t>http://ipswichkartclub.org.au/</t>
   </si>
   <si>
     <t>WSK EURO SERIES</t>
   </si>
   <si>
+    <t>Maglie, Apulia
+Italy</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/774226/wsk-euro-logo-sq-240-black_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -1094,12 +1154,19 @@
     <t>ENERGY KART NORTH AMERICA</t>
   </si>
   <si>
+    <t>ON Canada</t>
+  </si>
+  <si>
     <t>http://energykartnorthamerica.com/</t>
   </si>
   <si>
     <t>GREAT LAKES PROKART CHALLENGE</t>
   </si>
   <si>
+    <t>Noblesville, IN
+United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/741237/great-lakes-pkc-logo-sq-800_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -1134,6 +1201,10 @@
     <t>P1 PROMOTIONS</t>
   </si>
   <si>
+    <t>Wylie, TX
+United States</t>
+  </si>
+  <si>
     <t>PRAIRIE CITY KART TRACK</t>
   </si>
   <si>
@@ -1163,6 +1234,10 @@
   </si>
   <si>
     <t>MONTEREY BAY KARTERS</t>
+  </si>
+  <si>
+    <t>Marina, CA
+United States</t>
   </si>
   <si>
     <t>https://www.montereybaykarters.com/</t>
@@ -1242,6 +1317,9 @@
     <t>ALPHA KARTS</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>http://alpha-karting.com/</t>
   </si>
   <si>
@@ -1296,6 +1374,10 @@
     <t>BABY RACE</t>
   </si>
   <si>
+    <t>Castenedolo, Lombardia
+Italy</t>
+  </si>
+  <si>
     <t>http://www.babyrace.it/</t>
   </si>
   <si>
@@ -1357,6 +1439,10 @@
     <t>WSK OPEN CUP</t>
   </si>
   <si>
+    <t>Corigliano D'otranto, Puglia
+Italy</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/660577/wsk-final-cup-logo-sq-1200_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -1366,6 +1452,10 @@
     <t>ENERGY CORSE</t>
   </si>
   <si>
+    <t>Seriate, Lombardia
+Italy</t>
+  </si>
+  <si>
     <t>http://www.energycorse.com/</t>
   </si>
   <si>
@@ -1391,6 +1481,9 @@
   </si>
   <si>
     <t>ROK CUP CANADA</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
   <si>
     <t>SOUTH GARDA KARTING</t>
@@ -1409,6 +1502,10 @@
     <t>RON WHITE RACING</t>
   </si>
   <si>
+    <t>Canyon, CA
+United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/811357/ron-white-logo-sq-611_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -1516,6 +1613,10 @@
     <t>ORG NORTH AMERICA</t>
   </si>
   <si>
+    <t>Toronto, ON
+Canada</t>
+  </si>
+  <si>
     <t>WR MOTORSPORTS</t>
   </si>
   <si>
@@ -1567,6 +1668,10 @@
     <t>AUTOBAHN COUNTRY CLUB</t>
   </si>
   <si>
+    <t>Joliet, IL
+United States</t>
+  </si>
+  <si>
     <t>NSR DRIVER DEVELOPMENT</t>
   </si>
   <si>
@@ -1687,6 +1792,10 @@
     <t>CPB SPORT</t>
   </si>
   <si>
+    <t>Saint-Martin-de-Valgalgues,
+France</t>
+  </si>
+  <si>
     <t>http://cpb-sport.com/</t>
   </si>
   <si>
@@ -1845,6 +1954,9 @@
     <t>206 CUP</t>
   </si>
   <si>
+    <t>WI United States</t>
+  </si>
+  <si>
     <t>http://www.206cup.com/</t>
   </si>
   <si>
@@ -1876,6 +1988,10 @@
     <t>SANTA MARIA KARTING ASSOCIATION</t>
   </si>
   <si>
+    <t>Santa Maria, CA
+United States</t>
+  </si>
+  <si>
     <t>http://www.smka.org/</t>
   </si>
   <si>
@@ -1906,6 +2022,16 @@
   </si>
   <si>
     <t>https://www.ocalagranprix.com/</t>
+  </si>
+  <si>
+    <t>MINUS 273</t>
+  </si>
+  <si>
+    <t>Santa Monica, CA
+United States</t>
+  </si>
+  <si>
+    <t>http://www.minus273.biz/</t>
   </si>
   <si>
     <t>KARTLIFT</t>
@@ -1937,9 +2063,29 @@
     <t>http://www.vortex-engines.com/</t>
   </si>
   <si>
+    <t>P1 ENGINES</t>
+  </si>
+  <si>
+    <t>+1-909-948-2717</t>
+  </si>
+  <si>
+    <t>Rancho Cucamonga, CA
+United States</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/206505/p1-engines-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://p1engines.com/</t>
+  </si>
+  <si>
     <t>CRG NORDAM</t>
   </si>
   <si>
+    <t>Conroe, TX
+United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/354518/crg-nordam-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -1949,6 +2095,10 @@
     <t>PHOENIX KART RACING ASSOCIATION</t>
   </si>
   <si>
+    <t>Glendale, AZ
+United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/350317/pkra-logo-square_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -1969,6 +2119,10 @@
   </si>
   <si>
     <t>US AIR MOTORSPORTS (SHAWANO)</t>
+  </si>
+  <si>
+    <t>Shawano, WI
+United States</t>
   </si>
   <si>
     <t>http://www.usairmotorsports.com/</t>
@@ -2109,6 +2263,9 @@
     <t>LRN PHOTO</t>
   </si>
   <si>
+    <t>Romania</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/558609/lrn-photo-logo-sq-2048_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -2144,6 +2301,10 @@
   </si>
   <si>
     <t>SWEDETECH RACING ENGINES</t>
+  </si>
+  <si>
+    <t>Wilton, CA
+United States</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/547684/swedetech-logo-sq-1200_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -2215,13 +2376,26 @@
     <t>http://www.ikfkarting.com/</t>
   </si>
   <si>
+    <t>GOROTAX</t>
+  </si>
+  <si>
+    <t>+1-646-257-5717</t>
+  </si>
+  <si>
+    <t>Mirabel, QC
+Canada</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/522209/gorotax-logo-sq-320_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://gorotax.com/</t>
+  </si>
+  <si>
     <t>AUTOMOBILE CLUB DE L'OUEST</t>
   </si>
   <si>
     <t>+33 2 43 40 24 24</t>
-  </si>
-  <si>
-    <t>France</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/489219/aco-logo-sq-540_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -2357,9 +2531,41 @@
     <t>http://italkart.com/</t>
   </si>
   <si>
+    <t>EVINCO TIRES</t>
+  </si>
+  <si>
+    <t>+1-951-491-0330</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/468706/evinco-logo-sq-1500_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://www.evincotires.com/</t>
+  </si>
+  <si>
+    <t>KARTONE</t>
+  </si>
+  <si>
+    <t>+1-281-383Ã¢â‚¬â€9929</t>
+  </si>
+  <si>
+    <t>Rosenberg, TX
+United States</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/468696/kartone-logo-sq-1200_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://kartone.racing/</t>
+  </si>
+  <si>
     <t>QUINCY GRAND PRIX</t>
   </si>
   <si>
+    <t>Quincy, IL
+United States</t>
+  </si>
+  <si>
     <t>https://www.quincygrandprix.com/</t>
   </si>
   <si>
@@ -2416,16 +2622,27 @@
     <t>PORTLAND KARTING ASSOCIATION</t>
   </si>
   <si>
+    <t>McMinnville, OR
+United States</t>
+  </si>
+  <si>
     <t>http://www.portlandkarting.com/</t>
   </si>
   <si>
     <t>PUGET SOUND GO KART ASSOCIATION</t>
   </si>
   <si>
+    <t>Spanaway, WA
+United States</t>
+  </si>
+  <si>
     <t>https://psgka.com/</t>
   </si>
   <si>
     <t>NORTHWEST GOLD CUP</t>
+  </si>
+  <si>
+    <t>OR United States</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/449030/nw-gold-cup-logo-sq-lg_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -2504,6 +2721,10 @@
     <t>AMARILLO KART CIRCUIT</t>
   </si>
   <si>
+    <t>Panhandle, TX
+United States</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/424647/amarillo-kart-circuit-logo-sm-square_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -2680,6 +2901,19 @@
     <t>http://unserkarting.com/centennial/kart-racing</t>
   </si>
   <si>
+    <t>GRAND JUNCTION MOTOR SPEEDWAY</t>
+  </si>
+  <si>
+    <t>+1-970-256-0107</t>
+  </si>
+  <si>
+    <t>Grand Junction, CO
+United States</t>
+  </si>
+  <si>
+    <t>http://grandjunctionmotorspeedway.com/</t>
+  </si>
+  <si>
     <t>SBR MOTORSPORTS PARK</t>
   </si>
   <si>
@@ -2709,6 +2943,26 @@
     <t>IMI MOTORSPORTS PARK</t>
   </si>
   <si>
+    <t>Dacono, CO
+United States</t>
+  </si>
+  <si>
+    <t>COLORADO KARTING TOUR</t>
+  </si>
+  <si>
+    <t>+1-303-570-7569</t>
+  </si>
+  <si>
+    <t>Littleton, CO
+United States</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/400450/ckt-logo-square-small_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://coloradokartingtour.com/</t>
+  </si>
+  <si>
     <t>NEW YORK RACE COMPLEX</t>
   </si>
   <si>
@@ -2722,6 +2976,13 @@
     <t>http://www.nyracecomplex.com/</t>
   </si>
   <si>
+    <t>F1 OUTDOORS EAST</t>
+  </si>
+  <si>
+    <t>East Bridgewater, MA
+United States</t>
+  </si>
+  <si>
     <t>NEW JERSEY MOTORSPORTS PARK</t>
   </si>
   <si>
@@ -2738,9 +2999,36 @@
     <t>http://www.njmp.com/</t>
   </si>
   <si>
+    <t>PARMA MOTORSPORT</t>
+  </si>
+  <si>
+    <t>Parma, Emilia-Romagna
+Italy</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/367690/parma-motorsport-logo-square_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://www.parmamotorsport.it/</t>
+  </si>
+  <si>
+    <t>GULF COAST KARTWAY</t>
+  </si>
+  <si>
+    <t>Katy, TX
+United States</t>
+  </si>
+  <si>
+    <t>https://www.racekarts.com/</t>
+  </si>
+  <si>
     <t>NORTH TEXAS KARTWAY</t>
   </si>
   <si>
+    <t>Denton, TX
+United States</t>
+  </si>
+  <si>
     <t>https://www.ntkarters.com/</t>
   </si>
   <si>
@@ -2795,6 +3083,10 @@
     <t>ON TRACK PROMOTIONS</t>
   </si>
   <si>
+    <t>Millbrook, ON
+Canada</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/336050/otp-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -2817,6 +3109,10 @@
     <t>MONARTO KARTING COMPLEX</t>
   </si>
   <si>
+    <t>Monarto South, SA
+Australia</t>
+  </si>
+  <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/330653/monarto-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
   </si>
   <si>
@@ -2844,6 +3140,22 @@
     <t>http://www.txsprintseries.com/</t>
   </si>
   <si>
+    <t>BRP ROTAX</t>
+  </si>
+  <si>
+    <t>+43 (0) 7246 601 -0</t>
+  </si>
+  <si>
+    <t>Gunskirchen, OberÃƒÆ’Ã†â€™Ãƒâ€ Ã¢â‚¬â„¢ÃƒÆ’Ã¢â‚¬Å¡Ãƒâ€šÃ‚Â¶sterreich
+Austria</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/318402/rotax-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>https://www.rotax-kart.com/</t>
+  </si>
+  <si>
     <t>GOPRO MOTORPLEX KARTING CHALLENGE</t>
   </si>
   <si>
@@ -2878,6 +3190,10 @@
   </si>
   <si>
     <t>APEX RACE CENTER</t>
+  </si>
+  <si>
+    <t>Perris, CA
+United States</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/307479/apex-race-center-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -3050,6 +3366,22 @@
     <t>http://iameusawest.com/</t>
   </si>
   <si>
+    <t>IAME</t>
+  </si>
+  <si>
+    <t>39-035-883022</t>
+  </si>
+  <si>
+    <t>Zingonia , Bergamo
+Italy</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/434991/iame-logo-sq-sm_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://www.iamekarting.com/</t>
+  </si>
+  <si>
     <t>IKART</t>
   </si>
   <si>
@@ -3068,6 +3400,15 @@
     <t>http://www.kosmickart.com/</t>
   </si>
   <si>
+    <t>FA KART</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/139237/fa-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://www.fa-kart.com/</t>
+  </si>
+  <si>
     <t>TONY KART</t>
   </si>
   <si>
@@ -3133,9 +3474,6 @@
   </si>
   <si>
     <t>+1-905-775-4686</t>
-  </si>
-  <si>
-    <t>ON Canada</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/143579/ckc-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -3176,32 +3514,32 @@
     <t>+39-039-483440</t>
   </si>
   <si>
-    <t>Lissone, Lombardia
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/133080/birel-art-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://birelart.com/</t>
+  </si>
+  <si>
+    <t>RICCIARDO KART</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/133064/ricciardo-kart-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ricciardokart.com/</t>
+  </si>
+  <si>
+    <t>FIA KARTING</t>
+  </si>
+  <si>
+    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/131885/fia-karting-wc-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
+  </si>
+  <si>
+    <t>LENNOX RACING TEAM</t>
+  </si>
+  <si>
+    <t>Desenzano del Garda, Lombardy
 Italy</t>
-  </si>
-  <si>
-    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/133080/birel-art-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
-  </si>
-  <si>
-    <t>http://birelart.com/</t>
-  </si>
-  <si>
-    <t>RICCIARDO KART</t>
-  </si>
-  <si>
-    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/133064/ricciardo-kart-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
-  </si>
-  <si>
-    <t>http://www.ricciardokart.com/</t>
-  </si>
-  <si>
-    <t>FIA KARTING</t>
-  </si>
-  <si>
-    <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/131885/fia-karting-wc-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
-  </si>
-  <si>
-    <t>LENNOX RACING TEAM</t>
   </si>
   <si>
     <t>https://k360uploads.s3.amazonaws.com/transforms/profilepic/131646/lennox-racing-team-logo_fc9feed05f614c2e1b1417d3cf8a0c20.jpg</t>
@@ -3721,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aa5c1362-87ae-4a69-bda0-35b0462e6c42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1e2dc468-13ca-4615-bb9c-2a2c0289575b}">
   <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -3729,7 +4067,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="54.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="22.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="157" customWidth="1"/>
     <col min="4" max="4" width="126.857142857143" customWidth="1"/>
     <col min="5" max="5" width="81.8571428571429" customWidth="1"/>
@@ -4077,7 +4415,7 @@
         <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>99</v>
@@ -4142,1328 +4480,1355 @@
         <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A31" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="12.75"/>
     <row r="36" spans="1:5" ht="12.75">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="12.75">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A43" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12.75">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12.75">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12.75">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12.75">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="12.75">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="C54" t="s">
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="12.75">
       <c r="A56" t="s">
-        <v>237</v>
+        <v>241</v>
+      </c>
+      <c r="C56" t="s">
+        <v>242</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="12.75">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="12.75">
       <c r="A60" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12.75">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="12.75">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="12.75">
       <c r="A66" t="s">
-        <v>262</v>
+        <v>271</v>
+      </c>
+      <c r="C66" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A67" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="12.75">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B68" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A69" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="12.75">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A71" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="12.75">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E72" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A73" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12.75">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A75" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="12.75">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A77" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="12.75">
       <c r="A78" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E78" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A79" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="12.75">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A81" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75">
       <c r="A82" t="s">
-        <v>320</v>
+        <v>333</v>
+      </c>
+      <c r="C82" t="s">
+        <v>233</v>
       </c>
       <c r="D82" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E82" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A83" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75">
       <c r="A84" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C84" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E84" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A85" s="2" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75">
       <c r="A86" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C86" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E86" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A87" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>6</v>
+        <v>352</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75">
       <c r="A88" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A89" s="2" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="12.75">
       <c r="A90" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="E90" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A91" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75">
       <c r="A92" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="E92" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A93" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="12.75">
       <c r="A94" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="E94" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A95" s="2" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" ht="12.75">
       <c r="A96" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="E96" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A97" s="2" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="12.75">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B98" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C98" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E98" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A99" s="2" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="12.75">
       <c r="A100" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E100" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A101" s="2" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="12.75">
       <c r="A102" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="B102" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C102" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D102" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="E102" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A103" s="2" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="12.75">
       <c r="A104" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="C104" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="D104" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="E104" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A105" s="2" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="12.75">
       <c r="A106" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="D106" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="E106" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A107" s="2" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>6</v>
+        <v>428</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="12.75">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B108" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C108" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="D108" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E108" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A109" s="2" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="12.75">
       <c r="A110" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="C110" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="E110" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A111" s="2" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="12.75">
       <c r="A112" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="D112" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="E112" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A113" s="2" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>6</v>
+        <v>452</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="12.75">
       <c r="A114" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="B114" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="C114" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="D114" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="E114" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A115" s="2" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="12.75">
       <c r="A116" t="s">
-        <v>437</v>
+        <v>461</v>
+      </c>
+      <c r="C116" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A117" s="2" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" ht="12.75"/>
     <row r="120" spans="1:5" ht="12.75">
       <c r="A120" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c r="D120" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="E120" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A121" s="2" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="12.75">
       <c r="A122" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="B122" t="s">
         <v>65</v>
@@ -5472,502 +5837,511 @@
         <v>66</v>
       </c>
       <c r="D122" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="E122" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A123" s="2" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="12.75">
       <c r="A124" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="B124" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="C124" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="D124" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="E124" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A125" s="2" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="12.75">
       <c r="A126" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C126" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="E126" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A127" s="2" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="12.75">
       <c r="A128" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C128" t="s">
         <v>90</v>
       </c>
       <c r="D128" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="E128" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A129" s="2" t="s">
-        <v>476</v>
+        <v>502</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" ht="12.75">
       <c r="A130" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="B130" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C130" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="D130" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="E130" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A131" s="2" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="12.75">
       <c r="A132" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="B132" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="C132" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="D132" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="E132" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A133" s="2" t="s">
-        <v>491</v>
+        <v>518</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="12.75">
       <c r="A134" t="s">
-        <v>492</v>
+        <v>519</v>
+      </c>
+      <c r="C134" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A135" s="2" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="12.75">
       <c r="A136" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="B136" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C136" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A137" s="2" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="12.75">
       <c r="A138" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="B138" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="C138" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="D138" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="E138" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A139" s="2" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="12.75">
       <c r="A140" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="B140" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="C140" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="E140" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A141" s="2" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="12.75">
       <c r="A142" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="B142" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="C142" t="s">
         <v>66</v>
       </c>
       <c r="E142" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A143" s="2" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="12.75">
       <c r="A144" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="B144" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="C144" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="D144" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="E144" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A145" s="2" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>6</v>
+        <v>559</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="12.75">
       <c r="A146" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="B146" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="D146" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="E146" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A147" s="2" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="12.75">
       <c r="A148" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="B148" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="C148" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="D148" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="E148" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A149" s="2" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="12.75">
       <c r="A150" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="B150" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="C150" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="D150" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="E150" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A151" s="2" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="12.75">
       <c r="A152" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="B152" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="C152" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="E152" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A153" s="2" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="12.75">
       <c r="A154" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="B154" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="C154" t="s">
         <v>46</v>
       </c>
       <c r="E154" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A155" s="2" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="12.75">
       <c r="A156" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="B156" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="C156" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="D156" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="E156" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A157" s="2" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>41</v>
@@ -5976,1832 +6350,2035 @@
     </row>
     <row r="158" spans="1:5" ht="12.75">
       <c r="A158" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>610</v>
       </c>
       <c r="E158" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A159" s="2" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="12.75">
       <c r="A160" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>614</v>
       </c>
       <c r="D160" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="E160" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A161" s="2" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>6</v>
+        <v>621</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="12.75">
       <c r="A162" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="B162" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="C162" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="E162" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A163" s="2" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>600</v>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="12.75">
+      <c r="A164" t="s">
+        <v>632</v>
+      </c>
+      <c r="C164" t="s">
+        <v>633</v>
+      </c>
+      <c r="E164" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A165" s="2" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="12.75">
       <c r="A166" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="B166" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="C166" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="D166" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="E166" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="167" s="2" customFormat="1" ht="12.75"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" ht="12.75">
+      <c r="A167" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
     <row r="168" spans="1:5" ht="12.75">
       <c r="A168" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="D168" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="E168" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A169" s="2" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>6</v>
+        <v>654</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>614</v>
+        <v>655</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>615</v>
+        <v>656</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="12.75">
       <c r="A170" t="s">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="B170" t="s">
-        <v>617</v>
+        <v>658</v>
       </c>
       <c r="C170" t="s">
-        <v>618</v>
+        <v>659</v>
       </c>
       <c r="E170" t="s">
-        <v>619</v>
+        <v>660</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A171" s="2" t="s">
-        <v>620</v>
+        <v>661</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>6</v>
+        <v>662</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="12.75">
       <c r="A172" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="B172" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="C172" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="D172" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="E172" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A173" s="2" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="12.75">
       <c r="A174" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C174" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D174" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="E174" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A175" s="2" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="12.75">
       <c r="A176" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="B176" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="C176" t="s">
         <v>66</v>
       </c>
       <c r="D176" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="E176" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A177" s="2" t="s">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>643</v>
+        <v>685</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="12.75">
       <c r="A178" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="B178" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C178" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D178" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E178" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A179" s="2" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>649</v>
+        <v>691</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="12.75">
       <c r="A180" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="B180" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="C180" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A181" s="2" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>657</v>
+        <v>699</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="12.75">
       <c r="A182" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="B182" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="C182" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="D182" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="E182" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A183" s="2" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>6</v>
+        <v>707</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="12.75">
       <c r="A184" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="B184" t="s">
         <v>106</v>
       </c>
       <c r="C184" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="D184" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="E184" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A185" s="2" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="12.75">
       <c r="A186" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="E186" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A187" s="2" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>6</v>
+        <v>720</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="12.75">
       <c r="A188" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="B188" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="C188" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="E188" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A189" s="2" t="s">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="12.75">
       <c r="A190" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="B190" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="C190" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="E190" t="s">
-        <v>689</v>
+        <v>733</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A191" s="2" t="s">
-        <v>690</v>
+        <v>734</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>691</v>
+        <v>735</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" ht="12.75">
       <c r="A192" t="s">
-        <v>692</v>
+        <v>736</v>
+      </c>
+      <c r="C192" t="s">
+        <v>171</v>
       </c>
       <c r="D192" t="s">
-        <v>693</v>
+        <v>737</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A193" s="2" t="s">
-        <v>694</v>
+        <v>738</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>695</v>
+        <v>739</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>696</v>
+        <v>740</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>698</v>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="12.75">
+      <c r="A194" t="s">
+        <v>743</v>
+      </c>
+      <c r="B194" t="s">
+        <v>744</v>
+      </c>
+      <c r="C194" t="s">
+        <v>745</v>
+      </c>
+      <c r="D194" t="s">
+        <v>746</v>
+      </c>
+      <c r="E194" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="195" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A195" s="2" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>701</v>
+        <v>410</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>703</v>
+        <v>751</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="12.75">
       <c r="A196" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="B196" t="s">
-        <v>705</v>
+        <v>753</v>
       </c>
       <c r="C196" t="s">
-        <v>706</v>
+        <v>754</v>
       </c>
       <c r="D196" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="E196" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A197" s="2" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="12.75">
       <c r="A198" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
       <c r="B198" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="C198" t="s">
-        <v>715</v>
+        <v>763</v>
       </c>
       <c r="D198" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="E198" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
     </row>
     <row r="199" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A199" s="2" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="12.75">
       <c r="A200" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="B200" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="C200" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="D200" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="E200" t="s">
-        <v>727</v>
+        <v>775</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A201" s="2" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="12.75">
       <c r="A202" t="s">
-        <v>731</v>
+        <v>779</v>
       </c>
       <c r="B202" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="C202" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
       <c r="D202" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="E202" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
     </row>
     <row r="203" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A203" s="2" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="12.75">
       <c r="A204" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="B204" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="C204" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="D204" t="s">
-        <v>742</v>
+        <v>790</v>
       </c>
       <c r="E204" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="205" s="2" customFormat="1" ht="12.75"/>
+        <v>791</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="2" customFormat="1" ht="12.75">
+      <c r="A205" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="12.75">
+      <c r="A206" t="s">
+        <v>796</v>
+      </c>
+      <c r="B206" t="s">
+        <v>797</v>
+      </c>
+      <c r="C206" t="s">
+        <v>798</v>
+      </c>
+      <c r="D206" t="s">
+        <v>799</v>
+      </c>
+      <c r="E206" t="s">
+        <v>800</v>
+      </c>
+    </row>
     <row r="207" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A207" s="2" t="s">
-        <v>744</v>
+        <v>801</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>6</v>
+        <v>802</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>745</v>
+        <v>803</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="12.75">
       <c r="A208" t="s">
-        <v>746</v>
+        <v>804</v>
       </c>
       <c r="B208" t="s">
-        <v>747</v>
+        <v>805</v>
       </c>
       <c r="C208" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="E208" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A209" s="2" t="s">
-        <v>750</v>
+        <v>808</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>751</v>
+        <v>809</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>752</v>
+        <v>810</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>753</v>
+        <v>811</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>754</v>
+        <v>812</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="12.75">
       <c r="A210" t="s">
-        <v>755</v>
+        <v>813</v>
       </c>
       <c r="B210" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="C210" t="s">
-        <v>757</v>
+        <v>815</v>
       </c>
       <c r="D210" t="s">
-        <v>758</v>
+        <v>816</v>
       </c>
       <c r="E210" t="s">
-        <v>759</v>
+        <v>817</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A211" s="2" t="s">
-        <v>760</v>
+        <v>818</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>761</v>
+        <v>819</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="12.75">
       <c r="A212" t="s">
-        <v>762</v>
+        <v>820</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>821</v>
       </c>
       <c r="E212" t="s">
-        <v>763</v>
+        <v>822</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A213" s="2" t="s">
-        <v>764</v>
+        <v>823</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>6</v>
+        <v>824</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="12.75">
       <c r="A214" t="s">
-        <v>766</v>
+        <v>826</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>827</v>
       </c>
       <c r="D214" t="s">
-        <v>767</v>
+        <v>828</v>
       </c>
       <c r="E214" t="s">
-        <v>768</v>
+        <v>829</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A215" s="2" t="s">
-        <v>769</v>
+        <v>830</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>770</v>
+        <v>831</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>771</v>
+        <v>832</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>772</v>
+        <v>833</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="12.75">
       <c r="A216" t="s">
-        <v>773</v>
+        <v>834</v>
       </c>
       <c r="B216" t="s">
-        <v>774</v>
+        <v>835</v>
       </c>
       <c r="C216" t="s">
-        <v>775</v>
+        <v>836</v>
       </c>
       <c r="D216" t="s">
-        <v>776</v>
+        <v>837</v>
       </c>
       <c r="E216" t="s">
-        <v>777</v>
+        <v>838</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A217" s="2" t="s">
-        <v>778</v>
+        <v>839</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>779</v>
+        <v>840</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>781</v>
+        <v>842</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="12.75">
       <c r="A218" t="s">
-        <v>782</v>
+        <v>843</v>
       </c>
       <c r="B218" t="s">
-        <v>783</v>
+        <v>844</v>
       </c>
       <c r="C218" t="s">
-        <v>784</v>
+        <v>845</v>
       </c>
       <c r="D218" t="s">
-        <v>785</v>
+        <v>846</v>
       </c>
       <c r="E218" t="s">
-        <v>786</v>
+        <v>847</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A219" s="2" t="s">
-        <v>787</v>
+        <v>848</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>788</v>
+        <v>849</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>789</v>
+        <v>850</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="12.75">
       <c r="A220" t="s">
-        <v>790</v>
+        <v>851</v>
+      </c>
+      <c r="C220" t="s">
+        <v>852</v>
       </c>
       <c r="D220" t="s">
-        <v>791</v>
+        <v>853</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A221" s="2" t="s">
-        <v>792</v>
+        <v>854</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>793</v>
+        <v>855</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>794</v>
+        <v>856</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>795</v>
+        <v>857</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="12.75">
       <c r="A222" t="s">
-        <v>796</v>
+        <v>858</v>
       </c>
       <c r="B222" t="s">
-        <v>797</v>
+        <v>859</v>
       </c>
       <c r="C222" t="s">
-        <v>798</v>
+        <v>860</v>
       </c>
       <c r="E222" t="s">
-        <v>799</v>
+        <v>861</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A223" s="2" t="s">
-        <v>800</v>
+        <v>862</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>801</v>
+        <v>863</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>802</v>
+        <v>864</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>803</v>
+        <v>865</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="12.75">
       <c r="A224" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="B224" t="s">
-        <v>805</v>
+        <v>867</v>
       </c>
       <c r="C224" t="s">
-        <v>806</v>
+        <v>868</v>
       </c>
       <c r="E224" t="s">
-        <v>807</v>
+        <v>869</v>
       </c>
     </row>
     <row r="225" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A225" s="2" t="s">
-        <v>808</v>
+        <v>870</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>809</v>
+        <v>871</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>810</v>
+        <v>872</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>811</v>
+        <v>873</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>812</v>
+        <v>874</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="12.75">
       <c r="A226" t="s">
-        <v>813</v>
+        <v>875</v>
       </c>
       <c r="B226" t="s">
-        <v>814</v>
+        <v>876</v>
       </c>
       <c r="C226" t="s">
-        <v>815</v>
+        <v>877</v>
       </c>
       <c r="D226" t="s">
-        <v>816</v>
+        <v>878</v>
       </c>
       <c r="E226" t="s">
-        <v>817</v>
+        <v>879</v>
       </c>
     </row>
     <row r="227" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A227" s="2" t="s">
-        <v>818</v>
+        <v>880</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>819</v>
+        <v>881</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>820</v>
+        <v>882</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>821</v>
+        <v>883</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>822</v>
+        <v>884</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="12.75">
       <c r="A228" t="s">
-        <v>823</v>
+        <v>885</v>
       </c>
       <c r="B228" t="s">
-        <v>824</v>
+        <v>886</v>
       </c>
       <c r="C228" t="s">
-        <v>825</v>
+        <v>887</v>
       </c>
       <c r="E228" t="s">
-        <v>826</v>
+        <v>888</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A229" s="2" t="s">
-        <v>827</v>
+        <v>889</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>828</v>
+        <v>890</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>829</v>
+        <v>891</v>
       </c>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" ht="12.75">
       <c r="A230" t="s">
-        <v>830</v>
+        <v>892</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="D230" t="s">
-        <v>831</v>
+        <v>893</v>
       </c>
       <c r="E230" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A231" s="2" t="s">
-        <v>833</v>
+        <v>895</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>834</v>
+        <v>896</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>835</v>
+        <v>897</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>836</v>
+        <v>898</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="12.75">
       <c r="A232" t="s">
-        <v>837</v>
+        <v>899</v>
       </c>
       <c r="B232" t="s">
-        <v>838</v>
+        <v>900</v>
       </c>
       <c r="C232" t="s">
-        <v>839</v>
+        <v>901</v>
       </c>
       <c r="D232" t="s">
-        <v>840</v>
+        <v>902</v>
       </c>
       <c r="E232" t="s">
-        <v>841</v>
+        <v>903</v>
       </c>
     </row>
     <row r="233" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A233" s="2" t="s">
-        <v>842</v>
+        <v>904</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>843</v>
+        <v>905</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>844</v>
+        <v>906</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>845</v>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="12.75">
+      <c r="A234" t="s">
+        <v>908</v>
+      </c>
+      <c r="B234" t="s">
+        <v>909</v>
+      </c>
+      <c r="C234" t="s">
+        <v>910</v>
+      </c>
+      <c r="E234" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A235" s="2" t="s">
-        <v>846</v>
+        <v>912</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>847</v>
+        <v>913</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>848</v>
+        <v>914</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>849</v>
+        <v>915</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="12.75">
       <c r="A236" t="s">
-        <v>850</v>
+        <v>916</v>
       </c>
       <c r="B236" t="s">
-        <v>851</v>
+        <v>917</v>
       </c>
       <c r="C236" t="s">
-        <v>852</v>
+        <v>918</v>
       </c>
       <c r="E236" t="s">
-        <v>853</v>
+        <v>919</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A237" s="2" t="s">
-        <v>854</v>
+        <v>920</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" ht="12.75">
+      <c r="A238" t="s">
+        <v>922</v>
+      </c>
+      <c r="B238" t="s">
+        <v>923</v>
+      </c>
+      <c r="C238" t="s">
+        <v>924</v>
+      </c>
+      <c r="D238" t="s">
+        <v>925</v>
+      </c>
+      <c r="E238" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="239" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A239" s="2" t="s">
-        <v>855</v>
+        <v>927</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>856</v>
+        <v>928</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>857</v>
+        <v>929</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>858</v>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="12.75">
+      <c r="A240" t="s">
+        <v>931</v>
+      </c>
+      <c r="C240" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A241" s="2" t="s">
-        <v>859</v>
+        <v>933</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>860</v>
+        <v>934</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>861</v>
+        <v>935</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>862</v>
+        <v>936</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>863</v>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="12.75">
+      <c r="A242" t="s">
+        <v>938</v>
+      </c>
+      <c r="C242" t="s">
+        <v>939</v>
+      </c>
+      <c r="D242" t="s">
+        <v>940</v>
+      </c>
+      <c r="E242" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" ht="12.75"/>
+    <row r="244" spans="1:5" ht="12.75">
+      <c r="A244" t="s">
+        <v>942</v>
+      </c>
+      <c r="C244" t="s">
+        <v>943</v>
+      </c>
+      <c r="E244" t="s">
+        <v>944</v>
+      </c>
+    </row>
     <row r="245" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A245" s="2" t="s">
-        <v>864</v>
+        <v>945</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>6</v>
+        <v>946</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>865</v>
+        <v>947</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="12.75">
       <c r="A246" t="s">
-        <v>866</v>
+        <v>948</v>
       </c>
       <c r="B246" t="s">
-        <v>867</v>
+        <v>949</v>
       </c>
       <c r="C246" t="s">
-        <v>868</v>
+        <v>950</v>
       </c>
       <c r="D246" t="s">
-        <v>869</v>
+        <v>951</v>
       </c>
       <c r="E246" t="s">
-        <v>870</v>
+        <v>952</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A247" s="2" t="s">
-        <v>871</v>
+        <v>953</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>872</v>
+        <v>954</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>873</v>
+        <v>955</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>874</v>
+        <v>956</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>875</v>
+        <v>957</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="12.75">
       <c r="A248" t="s">
-        <v>876</v>
+        <v>958</v>
       </c>
       <c r="B248" t="s">
-        <v>877</v>
+        <v>959</v>
       </c>
       <c r="C248" t="s">
-        <v>878</v>
+        <v>960</v>
       </c>
       <c r="D248" t="s">
-        <v>879</v>
+        <v>961</v>
       </c>
       <c r="E248" t="s">
-        <v>880</v>
+        <v>962</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A249" s="2" t="s">
-        <v>881</v>
+        <v>963</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>6</v>
+        <v>964</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>882</v>
+        <v>965</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>883</v>
+        <v>966</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="12.75">
       <c r="A250" t="s">
-        <v>884</v>
+        <v>967</v>
       </c>
       <c r="B250" t="s">
         <v>55</v>
       </c>
       <c r="C250" t="s">
-        <v>885</v>
+        <v>968</v>
       </c>
       <c r="D250" t="s">
-        <v>886</v>
+        <v>969</v>
       </c>
       <c r="E250" t="s">
-        <v>887</v>
+        <v>970</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A251" s="2" t="s">
-        <v>888</v>
+        <v>971</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>6</v>
+        <v>972</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>889</v>
+        <v>973</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>890</v>
+        <v>974</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="12.75">
       <c r="A252" t="s">
-        <v>891</v>
+        <v>975</v>
       </c>
       <c r="B252" t="s">
-        <v>892</v>
+        <v>976</v>
       </c>
       <c r="C252" t="s">
-        <v>878</v>
+        <v>960</v>
       </c>
       <c r="D252" t="s">
-        <v>893</v>
+        <v>977</v>
       </c>
       <c r="E252" t="s">
-        <v>894</v>
+        <v>978</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A253" s="2" t="s">
-        <v>895</v>
+        <v>979</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>896</v>
+        <v>980</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>897</v>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="12.75">
+      <c r="A254" t="s">
+        <v>982</v>
+      </c>
+      <c r="B254" t="s">
+        <v>983</v>
+      </c>
+      <c r="C254" t="s">
+        <v>984</v>
+      </c>
+      <c r="D254" t="s">
+        <v>985</v>
+      </c>
+      <c r="E254" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A255" s="2" t="s">
-        <v>898</v>
+        <v>987</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>899</v>
+        <v>988</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>900</v>
+        <v>989</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>901</v>
+        <v>990</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="12.75">
       <c r="A256" t="s">
-        <v>902</v>
+        <v>991</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="D256" t="s">
-        <v>903</v>
+        <v>992</v>
       </c>
       <c r="E256" t="s">
-        <v>904</v>
+        <v>993</v>
       </c>
     </row>
     <row r="257" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A257" s="2" t="s">
-        <v>905</v>
+        <v>994</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>906</v>
+        <v>995</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>907</v>
+        <v>996</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>908</v>
+        <v>997</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="12.75">
       <c r="A258" t="s">
-        <v>909</v>
+        <v>998</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="D258" t="s">
-        <v>910</v>
+        <v>1000</v>
       </c>
       <c r="E258" t="s">
-        <v>911</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="259" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A259" s="2" t="s">
-        <v>912</v>
+        <v>1002</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>913</v>
+        <v>1003</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>914</v>
+        <v>1004</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>915</v>
+        <v>1005</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>916</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="12.75">
       <c r="A260" t="s">
-        <v>917</v>
+        <v>1007</v>
       </c>
       <c r="B260" t="s">
-        <v>918</v>
+        <v>1008</v>
       </c>
       <c r="C260" t="s">
-        <v>919</v>
+        <v>1009</v>
       </c>
       <c r="D260" t="s">
-        <v>920</v>
+        <v>1010</v>
       </c>
       <c r="E260" t="s">
-        <v>921</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A261" s="2" t="s">
-        <v>922</v>
+        <v>1012</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>6</v>
+        <v>610</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>923</v>
+        <v>1013</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>924</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="12.75">
       <c r="A262" t="s">
-        <v>925</v>
+        <v>1015</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>827</v>
       </c>
       <c r="D262" t="s">
-        <v>926</v>
+        <v>1016</v>
       </c>
       <c r="E262" t="s">
-        <v>927</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A263" s="2" t="s">
-        <v>928</v>
+        <v>1018</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>929</v>
+        <v>1019</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>930</v>
+        <v>1020</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>931</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="12.75">
       <c r="A264" t="s">
-        <v>932</v>
+        <v>1022</v>
       </c>
       <c r="B264" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C264" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D264" t="s">
-        <v>933</v>
+        <v>1023</v>
       </c>
       <c r="E264" t="s">
-        <v>934</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A265" s="2" t="s">
-        <v>935</v>
+        <v>1025</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>936</v>
+        <v>1026</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>937</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="12.75">
       <c r="A266" t="s">
-        <v>938</v>
+        <v>1028</v>
       </c>
       <c r="B266" t="s">
-        <v>939</v>
+        <v>1029</v>
       </c>
       <c r="C266" t="s">
-        <v>940</v>
+        <v>1030</v>
       </c>
       <c r="D266" t="s">
-        <v>941</v>
+        <v>1031</v>
       </c>
       <c r="E266" t="s">
-        <v>942</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A267" s="2" t="s">
-        <v>943</v>
+        <v>1033</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>944</v>
+        <v>1034</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>945</v>
+        <v>1035</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>946</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="12.75">
       <c r="A268" t="s">
-        <v>947</v>
+        <v>1037</v>
       </c>
       <c r="B268" t="s">
-        <v>948</v>
+        <v>1038</v>
       </c>
       <c r="C268" t="s">
-        <v>949</v>
+        <v>1039</v>
       </c>
       <c r="D268" t="s">
-        <v>950</v>
+        <v>1040</v>
       </c>
       <c r="E268" t="s">
-        <v>951</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A269" s="2" t="s">
-        <v>952</v>
+        <v>1042</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>953</v>
+        <v>1043</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>954</v>
+        <v>1044</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>955</v>
+        <v>1045</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>956</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="12.75">
       <c r="A270" t="s">
-        <v>957</v>
+        <v>1047</v>
       </c>
       <c r="B270" t="s">
-        <v>958</v>
+        <v>1048</v>
       </c>
       <c r="C270" t="s">
-        <v>959</v>
+        <v>1049</v>
       </c>
       <c r="D270" t="s">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="E270" t="s">
-        <v>961</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A271" s="2" t="s">
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>963</v>
+        <v>1053</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>964</v>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="12.75">
+      <c r="A272" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A273" s="2" t="s">
-        <v>965</v>
+        <v>1060</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>966</v>
+        <v>1061</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>967</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="12.75">
       <c r="A274" t="s">
-        <v>968</v>
+        <v>1063</v>
       </c>
       <c r="B274" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C274" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D274" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="E274" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="275" s="2" customFormat="1" ht="12.75"/>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" s="2" customFormat="1" ht="12.75">
+      <c r="A275" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
     <row r="276" spans="1:5" ht="12.75">
       <c r="A276" t="s">
-        <v>971</v>
+        <v>1069</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="D276" t="s">
-        <v>972</v>
+        <v>1070</v>
       </c>
       <c r="E276" t="s">
-        <v>973</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A277" s="2" t="s">
-        <v>974</v>
+        <v>1072</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>975</v>
+        <v>1073</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>976</v>
+        <v>1074</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>977</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="12.75">
       <c r="A278" t="s">
-        <v>978</v>
+        <v>1076</v>
       </c>
       <c r="B278" t="s">
-        <v>979</v>
+        <v>1077</v>
       </c>
       <c r="C278" t="s">
         <v>66</v>
       </c>
       <c r="D278" t="s">
-        <v>980</v>
+        <v>1078</v>
       </c>
       <c r="E278" t="s">
-        <v>981</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A279" s="2" t="s">
-        <v>982</v>
+        <v>1080</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>983</v>
+        <v>1081</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>984</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="12.75">
       <c r="A280" t="s">
-        <v>985</v>
+        <v>1083</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="D280" t="s">
-        <v>986</v>
+        <v>1084</v>
       </c>
       <c r="E280" t="s">
-        <v>987</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A281" s="2" t="s">
-        <v>988</v>
+        <v>1086</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>6</v>
+        <v>532</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>989</v>
+        <v>1087</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>990</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="12.75">
       <c r="A282" t="s">
-        <v>991</v>
+        <v>1089</v>
       </c>
       <c r="B282" t="s">
-        <v>992</v>
+        <v>1090</v>
       </c>
       <c r="C282" t="s">
-        <v>993</v>
+        <v>359</v>
       </c>
       <c r="D282" t="s">
-        <v>994</v>
+        <v>1091</v>
       </c>
       <c r="E282" t="s">
-        <v>995</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A283" s="2" t="s">
-        <v>996</v>
+        <v>1093</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>992</v>
+        <v>1090</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>997</v>
+        <v>1094</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>998</v>
+        <v>1095</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>999</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="12.75">
       <c r="A284" t="s">
-        <v>1000</v>
+        <v>1097</v>
       </c>
       <c r="B284" t="s">
-        <v>1001</v>
+        <v>1098</v>
       </c>
       <c r="C284" t="s">
-        <v>1002</v>
+        <v>1099</v>
       </c>
       <c r="D284" t="s">
-        <v>1003</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A285" s="2" t="s">
-        <v>1004</v>
+        <v>1101</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1005</v>
+        <v>1102</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1006</v>
+        <v>264</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>1007</v>
+        <v>1103</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1008</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="12.75">
       <c r="A286" t="s">
-        <v>1009</v>
+        <v>1105</v>
       </c>
       <c r="B286" t="s">
-        <v>1005</v>
+        <v>1102</v>
       </c>
       <c r="C286" t="s">
-        <v>1006</v>
+        <v>264</v>
       </c>
       <c r="D286" t="s">
-        <v>1010</v>
+        <v>1106</v>
       </c>
       <c r="E286" t="s">
-        <v>1011</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A287" s="2" t="s">
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>814</v>
+        <v>876</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>815</v>
+        <v>877</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>1013</v>
+        <v>1109</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>817</v>
+        <v>879</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="12.75">
       <c r="A288" t="s">
-        <v>1014</v>
+        <v>1110</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>1111</v>
       </c>
       <c r="D288" t="s">
-        <v>1015</v>
+        <v>1112</v>
       </c>
       <c r="E288" t="s">
-        <v>1016</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A289" s="2" t="s">
-        <v>1017</v>
+        <v>1114</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1018</v>
+        <v>1115</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1019</v>
+        <v>1116</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>1020</v>
+        <v>1117</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1021</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="12.75">
       <c r="A290" t="s">
-        <v>1022</v>
+        <v>1119</v>
       </c>
       <c r="B290" t="s">
         <v>106</v>
       </c>
       <c r="C290" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="D290" t="s">
-        <v>1023</v>
+        <v>1120</v>
       </c>
       <c r="E290" t="s">
-        <v>1024</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A291" s="2" t="s">
-        <v>1025</v>
+        <v>1122</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1026</v>
+        <v>1123</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1027</v>
+        <v>1124</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>1028</v>
+        <v>1125</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1029</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="12.75">
       <c r="A292" t="s">
-        <v>1030</v>
+        <v>1127</v>
       </c>
       <c r="B292" t="s">
-        <v>1026</v>
+        <v>1123</v>
       </c>
       <c r="C292" t="s">
-        <v>1027</v>
+        <v>1124</v>
       </c>
       <c r="D292" t="s">
-        <v>1031</v>
+        <v>1128</v>
       </c>
       <c r="E292" t="s">
-        <v>1032</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
